--- a/data/pca/factorExposure/factorExposure_2012-08-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-22.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002514735438946504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001737372508645171</v>
+      </c>
+      <c r="C2">
+        <v>0.02902462300077376</v>
+      </c>
+      <c r="D2">
+        <v>0.00473043120177693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0004708545224571238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006566757866524306</v>
+      </c>
+      <c r="C4">
+        <v>0.08376230411804927</v>
+      </c>
+      <c r="D4">
+        <v>0.06646546735747316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005901881004109383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01489131389682373</v>
+      </c>
+      <c r="C6">
+        <v>0.118093550790546</v>
+      </c>
+      <c r="D6">
+        <v>0.02026148654226679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001064582051621946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004933333494757132</v>
+      </c>
+      <c r="C7">
+        <v>0.05907833349821731</v>
+      </c>
+      <c r="D7">
+        <v>0.03124300294844465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007585560648941747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004898012040689922</v>
+      </c>
+      <c r="C8">
+        <v>0.03571883697458102</v>
+      </c>
+      <c r="D8">
+        <v>0.0395112202238691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0004535287873294288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005538387475651456</v>
+      </c>
+      <c r="C9">
+        <v>0.07209894887278968</v>
+      </c>
+      <c r="D9">
+        <v>0.07203794501090334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0009770860022509039</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.002279949206151489</v>
+      </c>
+      <c r="C10">
+        <v>0.0522501373391988</v>
+      </c>
+      <c r="D10">
+        <v>-0.1842604607829715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0007552682238652928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005923447744079185</v>
+      </c>
+      <c r="C11">
+        <v>0.08076874698434751</v>
+      </c>
+      <c r="D11">
+        <v>0.06663208577174484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006276431819792959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004429656821381645</v>
+      </c>
+      <c r="C12">
+        <v>0.06499646248812335</v>
+      </c>
+      <c r="D12">
+        <v>0.05041381080628686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002107229915130925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008671685005200063</v>
+      </c>
+      <c r="C13">
+        <v>0.07111721552653713</v>
+      </c>
+      <c r="D13">
+        <v>0.05695854729459872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001596022492529213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007979341964807729</v>
+      </c>
+      <c r="C14">
+        <v>0.04329776371361069</v>
+      </c>
+      <c r="D14">
+        <v>0.01067168345387326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.00178001133528561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00589116392063572</v>
+      </c>
+      <c r="C15">
+        <v>0.04073514239226969</v>
+      </c>
+      <c r="D15">
+        <v>0.02682781857601791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0003724491280284602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005385568065412181</v>
+      </c>
+      <c r="C16">
+        <v>0.06463681407660479</v>
+      </c>
+      <c r="D16">
+        <v>0.05889325085802076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002894614912696658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008806507835441865</v>
+      </c>
+      <c r="C20">
+        <v>0.06415449660981827</v>
+      </c>
+      <c r="D20">
+        <v>0.05144889291933672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005690663866487572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00929402075488891</v>
+      </c>
+      <c r="C21">
+        <v>0.02026687949240802</v>
+      </c>
+      <c r="D21">
+        <v>0.03819363431221496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02021335939197594</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007733126855437316</v>
+      </c>
+      <c r="C22">
+        <v>0.0872781580091767</v>
+      </c>
+      <c r="D22">
+        <v>0.1277230234190424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01987632716498455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007440649216895491</v>
+      </c>
+      <c r="C23">
+        <v>0.08768547065330831</v>
+      </c>
+      <c r="D23">
+        <v>0.1288362100478035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001105143439378843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005911118911493112</v>
+      </c>
+      <c r="C24">
+        <v>0.07716244031082897</v>
+      </c>
+      <c r="D24">
+        <v>0.06722539496961957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002705774440866569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003411178004712485</v>
+      </c>
+      <c r="C25">
+        <v>0.07820238760899274</v>
+      </c>
+      <c r="D25">
+        <v>0.06547669762660124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001126273121249042</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003611071999029029</v>
+      </c>
+      <c r="C26">
+        <v>0.03964983886773592</v>
+      </c>
+      <c r="D26">
+        <v>0.02115698291146837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006739220389845395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002242940272295319</v>
+      </c>
+      <c r="C28">
+        <v>0.102939188968197</v>
+      </c>
+      <c r="D28">
+        <v>-0.3244631702457951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0005557511053013708</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003253325909158925</v>
+      </c>
+      <c r="C29">
+        <v>0.04756330754478005</v>
+      </c>
+      <c r="D29">
+        <v>0.01004781688851934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002671006014424531</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009234337403519541</v>
+      </c>
+      <c r="C30">
+        <v>0.1412257993868361</v>
+      </c>
+      <c r="D30">
+        <v>0.1067099236539829</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001934661903129242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006191978401575595</v>
+      </c>
+      <c r="C31">
+        <v>0.04402118539997959</v>
+      </c>
+      <c r="D31">
+        <v>0.03124598953787524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003619714819638721</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004382060391289991</v>
+      </c>
+      <c r="C32">
+        <v>0.03887806763495764</v>
+      </c>
+      <c r="D32">
+        <v>0.02042332838819494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0004088233162652831</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008792608422041277</v>
+      </c>
+      <c r="C33">
+        <v>0.09045146740754258</v>
+      </c>
+      <c r="D33">
+        <v>0.06203326807535967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0009349430100876959</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004455254875960682</v>
+      </c>
+      <c r="C34">
+        <v>0.05793020709110502</v>
+      </c>
+      <c r="D34">
+        <v>0.0593009809358865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002053822421241445</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005183777708092834</v>
+      </c>
+      <c r="C35">
+        <v>0.04065420840498727</v>
+      </c>
+      <c r="D35">
+        <v>0.0141230176976078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004323520357734902</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00138626302950245</v>
+      </c>
+      <c r="C36">
+        <v>0.02531550008901705</v>
+      </c>
+      <c r="D36">
+        <v>0.021901590582443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002693637854694846</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008968989932498162</v>
+      </c>
+      <c r="C38">
+        <v>0.04106326952517833</v>
+      </c>
+      <c r="D38">
+        <v>0.01418218973566047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01115375146553111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001953628538140236</v>
+      </c>
+      <c r="C39">
+        <v>0.11217945090501</v>
+      </c>
+      <c r="D39">
+        <v>0.0809208269990411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.004056780076164819</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002646911444813695</v>
+      </c>
+      <c r="C40">
+        <v>0.09130198339415579</v>
+      </c>
+      <c r="D40">
+        <v>0.01764444831026963</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002458934684789011</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007534094132599189</v>
+      </c>
+      <c r="C41">
+        <v>0.04135480298956051</v>
+      </c>
+      <c r="D41">
+        <v>0.04060164694382003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.0018838064097965</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003940958731163813</v>
+      </c>
+      <c r="C43">
+        <v>0.05428584354019901</v>
+      </c>
+      <c r="D43">
+        <v>0.02710756489237629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00771235312611888</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.001739388539408866</v>
+      </c>
+      <c r="C44">
+        <v>0.1046927536646839</v>
+      </c>
+      <c r="D44">
+        <v>0.06732842311128567</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001336452861523969</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001527519977464066</v>
+      </c>
+      <c r="C46">
+        <v>0.03269978047604168</v>
+      </c>
+      <c r="D46">
+        <v>0.0330666772318943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0001690235345825889</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002768205134144822</v>
+      </c>
+      <c r="C47">
+        <v>0.03524186650173957</v>
+      </c>
+      <c r="D47">
+        <v>0.02178688304366773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004944480235563527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007695245102981879</v>
+      </c>
+      <c r="C48">
+        <v>0.03349764884451208</v>
+      </c>
+      <c r="D48">
+        <v>0.02995582046589379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.00480367752801129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0172552169563171</v>
+      </c>
+      <c r="C49">
+        <v>0.1866401207957957</v>
+      </c>
+      <c r="D49">
+        <v>0.008778658995263772</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0002356113607023396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004043625784478726</v>
+      </c>
+      <c r="C50">
+        <v>0.04271104269326958</v>
+      </c>
+      <c r="D50">
+        <v>0.03882693272515281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>1.108335098472136e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003867424863468751</v>
+      </c>
+      <c r="C51">
+        <v>0.02641265568473694</v>
+      </c>
+      <c r="D51">
+        <v>0.02494418969152123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0086136595320595</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02144552558477747</v>
+      </c>
+      <c r="C53">
+        <v>0.1717126730550688</v>
+      </c>
+      <c r="D53">
+        <v>0.02068449130057292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003517592926899959</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009444030010367418</v>
+      </c>
+      <c r="C54">
+        <v>0.05689808721819403</v>
+      </c>
+      <c r="D54">
+        <v>0.04035757775006586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001975617300577587</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.010071424327147</v>
+      </c>
+      <c r="C55">
+        <v>0.1086762765691086</v>
+      </c>
+      <c r="D55">
+        <v>0.03542396170335575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009381043821151801</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0213490121372894</v>
+      </c>
+      <c r="C56">
+        <v>0.1744729600303855</v>
+      </c>
+      <c r="D56">
+        <v>0.01463863913983857</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001022999448028705</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01633884937613896</v>
+      </c>
+      <c r="C58">
+        <v>0.1069732884578416</v>
+      </c>
+      <c r="D58">
+        <v>0.06651353711193436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002826932122195439</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009270847773262198</v>
+      </c>
+      <c r="C59">
+        <v>0.1682041249503019</v>
+      </c>
+      <c r="D59">
+        <v>-0.3463789278831876</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008589400839021813</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02606205700091639</v>
+      </c>
+      <c r="C60">
+        <v>0.2233894154547063</v>
+      </c>
+      <c r="D60">
+        <v>0.01654114052019182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01006709652497486</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002096248069160059</v>
+      </c>
+      <c r="C61">
+        <v>0.09402869428719007</v>
+      </c>
+      <c r="D61">
+        <v>0.05862641902488889</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1497952342545503</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1527389893471255</v>
+      </c>
+      <c r="C62">
+        <v>0.1018563659264067</v>
+      </c>
+      <c r="D62">
+        <v>0.01715211338399361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001233187119687661</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006526962116860224</v>
+      </c>
+      <c r="C63">
+        <v>0.05361382217442952</v>
+      </c>
+      <c r="D63">
+        <v>0.03366725420683925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01062584209319432</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01692764087149585</v>
+      </c>
+      <c r="C64">
+        <v>0.1063455695321219</v>
+      </c>
+      <c r="D64">
+        <v>0.05315812229022984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008756578123532767</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01783011495957533</v>
+      </c>
+      <c r="C65">
+        <v>0.1201849399015709</v>
+      </c>
+      <c r="D65">
+        <v>0.02583935926046911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001055168772962156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01279749944739266</v>
+      </c>
+      <c r="C66">
+        <v>0.1602639610029689</v>
+      </c>
+      <c r="D66">
+        <v>0.1128736322009564</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005946118139193093</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01537576191122534</v>
+      </c>
+      <c r="C67">
+        <v>0.0734952931111187</v>
+      </c>
+      <c r="D67">
+        <v>0.02561469421739042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00465918083070995</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0001348889941263943</v>
+      </c>
+      <c r="C68">
+        <v>0.08496026827903823</v>
+      </c>
+      <c r="D68">
+        <v>-0.2581764974345013</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0003528788576046818</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006045767252250928</v>
+      </c>
+      <c r="C69">
+        <v>0.05213458217341618</v>
+      </c>
+      <c r="D69">
+        <v>0.03749262965148137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001443811225810129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002564485257128542</v>
+      </c>
+      <c r="C70">
+        <v>0.008547830729299528</v>
+      </c>
+      <c r="D70">
+        <v>-0.00137983786095819</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0002818911940037394</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004581282758382993</v>
+      </c>
+      <c r="C71">
+        <v>0.08925808367266451</v>
+      </c>
+      <c r="D71">
+        <v>-0.3011141872097415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005411978706078828</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.0183124400982461</v>
+      </c>
+      <c r="C72">
+        <v>0.1587772867499193</v>
+      </c>
+      <c r="D72">
+        <v>0.007110062089118251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009813361594776254</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03099930573955326</v>
+      </c>
+      <c r="C73">
+        <v>0.2817976118518387</v>
+      </c>
+      <c r="D73">
+        <v>0.0558185625324699</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005235348700172534</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002019285641869859</v>
+      </c>
+      <c r="C74">
+        <v>0.1031924580157454</v>
+      </c>
+      <c r="D74">
+        <v>0.032902476726608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0005837518727388416</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01150426509064744</v>
+      </c>
+      <c r="C75">
+        <v>0.1207193343440062</v>
+      </c>
+      <c r="D75">
+        <v>0.02679333560689274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01098198520833381</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02170933134623701</v>
+      </c>
+      <c r="C76">
+        <v>0.1458492504433609</v>
+      </c>
+      <c r="D76">
+        <v>0.0567661963472064</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.007039801526675669</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02139584807623432</v>
+      </c>
+      <c r="C77">
+        <v>0.1101412149643973</v>
+      </c>
+      <c r="D77">
+        <v>0.04797622641493228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.004657913032967619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.0142577812550092</v>
+      </c>
+      <c r="C78">
+        <v>0.09874777388851776</v>
+      </c>
+      <c r="D78">
+        <v>0.08168956344609292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02770579779938886</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03911994582988032</v>
+      </c>
+      <c r="C79">
+        <v>0.1573372989866759</v>
+      </c>
+      <c r="D79">
+        <v>0.02938650833320791</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006392674386186512</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.00951509423938832</v>
+      </c>
+      <c r="C80">
+        <v>0.04002096046948175</v>
+      </c>
+      <c r="D80">
+        <v>0.03225181866282453</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005328565831085078</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01621368283426368</v>
+      </c>
+      <c r="C81">
+        <v>0.1308194922974575</v>
+      </c>
+      <c r="D81">
+        <v>0.0374443701377597</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.008025278109589256</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01957242281945965</v>
+      </c>
+      <c r="C82">
+        <v>0.1365688388263559</v>
+      </c>
+      <c r="D82">
+        <v>0.03606418982230885</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003379499885552555</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0120609773314253</v>
+      </c>
+      <c r="C83">
+        <v>0.06450743272309743</v>
+      </c>
+      <c r="D83">
+        <v>0.04516298911741267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004410825531363532</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006536883548203042</v>
+      </c>
+      <c r="C84">
+        <v>0.03524417243927352</v>
+      </c>
+      <c r="D84">
+        <v>0.01146924040289979</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01909859061367426</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02900842216843569</v>
+      </c>
+      <c r="C85">
+        <v>0.1234230583105332</v>
+      </c>
+      <c r="D85">
+        <v>0.03980294661643918</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002372942591711517</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.00383848310415815</v>
+      </c>
+      <c r="C86">
+        <v>0.05085442596273893</v>
+      </c>
+      <c r="D86">
+        <v>0.02592680095682674</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001860483210926368</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01175743462454469</v>
+      </c>
+      <c r="C87">
+        <v>0.1287869085769827</v>
+      </c>
+      <c r="D87">
+        <v>0.07321807136646608</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.00841223232251705</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002933916354233776</v>
+      </c>
+      <c r="C88">
+        <v>0.06355376991093067</v>
+      </c>
+      <c r="D88">
+        <v>0.02900973656270784</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01133260174101894</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002931695074215852</v>
+      </c>
+      <c r="C89">
+        <v>0.1349805084564793</v>
+      </c>
+      <c r="D89">
+        <v>-0.3177366776654979</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002133879832368418</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005504379210223395</v>
+      </c>
+      <c r="C90">
+        <v>0.1159315512581658</v>
+      </c>
+      <c r="D90">
+        <v>-0.3140552547421251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002736761091592333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01122152312359424</v>
+      </c>
+      <c r="C91">
+        <v>0.09899929213418036</v>
+      </c>
+      <c r="D91">
+        <v>0.02993325487873167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.006016412353384987</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0005290754835960081</v>
+      </c>
+      <c r="C92">
+        <v>0.1296367059723784</v>
+      </c>
+      <c r="D92">
+        <v>-0.3256479633302853</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001918811008451358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003124871277549726</v>
+      </c>
+      <c r="C93">
+        <v>0.1042799534414755</v>
+      </c>
+      <c r="D93">
+        <v>-0.3013056794676948</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01028108310265435</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02214613979766172</v>
+      </c>
+      <c r="C94">
+        <v>0.1399592842237001</v>
+      </c>
+      <c r="D94">
+        <v>0.05525371591926084</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006952950610900028</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01584981854593906</v>
+      </c>
+      <c r="C95">
+        <v>0.1200039300879791</v>
+      </c>
+      <c r="D95">
+        <v>0.06877906037407551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01742944687569584</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03723995986724571</v>
+      </c>
+      <c r="C97">
+        <v>0.225102491517021</v>
+      </c>
+      <c r="D97">
+        <v>-0.0009154579212508236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01260333913810559</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03925029719144846</v>
+      </c>
+      <c r="C98">
+        <v>0.2613686455390299</v>
+      </c>
+      <c r="D98">
+        <v>0.03008482649320129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9864942197895497</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9807163679717407</v>
+      </c>
+      <c r="C99">
+        <v>-0.1205459251698242</v>
+      </c>
+      <c r="D99">
+        <v>-0.0247287100998132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0005807332161625961</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003244871882242318</v>
+      </c>
+      <c r="C101">
+        <v>0.04774355807204559</v>
+      </c>
+      <c r="D101">
+        <v>0.01071591835627316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
